--- a/Code/Results/Cases/Case_2_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.00916442526165</v>
+        <v>14.25885541126553</v>
       </c>
       <c r="C2">
-        <v>6.878362017849231</v>
+        <v>8.460474104635257</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.808962729015842</v>
+        <v>12.36247422199909</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>43.61947376130041</v>
+        <v>52.2700144146375</v>
       </c>
       <c r="H2">
-        <v>14.16953626091674</v>
+        <v>20.16600593833469</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.07794036627385</v>
+        <v>10.62449821130868</v>
       </c>
       <c r="L2">
-        <v>6.24826818309661</v>
+        <v>10.07342784662966</v>
       </c>
       <c r="M2">
-        <v>9.941453701672277</v>
+        <v>15.15622141892267</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.27563403477195</v>
+        <v>14.12455322514939</v>
       </c>
       <c r="C3">
-        <v>6.810214313625459</v>
+        <v>8.435599950674264</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.78975490635385</v>
+        <v>12.38106974861166</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>43.05481998696461</v>
+        <v>52.24337459732921</v>
       </c>
       <c r="H3">
-        <v>14.16700518237537</v>
+        <v>20.19972502377299</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.440170665687596</v>
+        <v>10.53425400819322</v>
       </c>
       <c r="L3">
-        <v>6.17833280946627</v>
+        <v>10.08299292575401</v>
       </c>
       <c r="M3">
-        <v>9.682356379331781</v>
+        <v>15.14932502427314</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80965038075548</v>
+        <v>14.04500536636511</v>
       </c>
       <c r="C4">
-        <v>6.767865311809869</v>
+        <v>8.419871745827367</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.781152048982603</v>
+        <v>12.39391830670356</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>42.7385357148471</v>
+        <v>52.23804067308948</v>
       </c>
       <c r="H4">
-        <v>14.1731798608946</v>
+        <v>20.22325666672233</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.027688728855992</v>
+        <v>10.48100879622683</v>
       </c>
       <c r="L4">
-        <v>6.137934431604667</v>
+        <v>10.09022174160067</v>
       </c>
       <c r="M4">
-        <v>9.525081554835927</v>
+        <v>15.14762361622899</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.61602877086731</v>
+        <v>14.01335714714178</v>
       </c>
       <c r="C5">
-        <v>6.750476668534076</v>
+        <v>8.413348297365529</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.778432076517477</v>
+        <v>12.39951424020416</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>42.61711081830219</v>
+        <v>52.23863685384855</v>
       </c>
       <c r="H5">
-        <v>14.17756692672932</v>
+        <v>20.23355624261685</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.854332485623216</v>
+        <v>10.45987805296979</v>
       </c>
       <c r="L5">
-        <v>6.122110977472827</v>
+        <v>10.09350883900024</v>
       </c>
       <c r="M5">
-        <v>9.461521231103537</v>
+        <v>15.14756936147675</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.58365924334975</v>
+        <v>14.00814938487088</v>
       </c>
       <c r="C6">
-        <v>6.747581280865492</v>
+        <v>8.412258206352817</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.778027397104657</v>
+        <v>12.40046519315299</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>42.59739338135889</v>
+        <v>52.23890304496864</v>
       </c>
       <c r="H6">
-        <v>14.17840629729556</v>
+        <v>20.23530934900252</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.82522849704246</v>
+        <v>10.45640420361034</v>
       </c>
       <c r="L6">
-        <v>6.119522091432672</v>
+        <v>10.09407528204262</v>
       </c>
       <c r="M6">
-        <v>9.451001356174903</v>
+        <v>15.14759900829673</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.80705394794223</v>
+        <v>14.04457539146961</v>
       </c>
       <c r="C7">
-        <v>6.767631337830307</v>
+        <v>8.41978422963729</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.781112206983979</v>
+        <v>12.39399231730846</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>42.73686817207446</v>
+        <v>52.23803750264869</v>
       </c>
       <c r="H7">
-        <v>14.173231546207</v>
+        <v>20.22339269591947</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.025372121889051</v>
+        <v>10.48072149423546</v>
       </c>
       <c r="L7">
-        <v>6.137718443577591</v>
+        <v>10.09026469020898</v>
       </c>
       <c r="M7">
-        <v>9.524222109727829</v>
+        <v>15.14762029430712</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.75958143157779</v>
+        <v>14.211964833783</v>
       </c>
       <c r="C8">
-        <v>6.854967181552707</v>
+        <v>8.451992262267591</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.801667662153782</v>
+        <v>12.36858914578444</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>43.41836185515881</v>
+        <v>52.25854044822923</v>
       </c>
       <c r="H8">
-        <v>14.16701522110346</v>
+        <v>20.17704481955083</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.862361806121228</v>
+        <v>10.59294656424141</v>
       </c>
       <c r="L8">
-        <v>6.223627048700362</v>
+        <v>10.07644471931531</v>
       </c>
       <c r="M8">
-        <v>9.851784871705894</v>
+        <v>15.15331918187296</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.49740199035551</v>
+        <v>14.56171755672871</v>
       </c>
       <c r="C9">
-        <v>7.022435527041859</v>
+        <v>8.511521851754916</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.868037190594126</v>
+        <v>12.33011542407194</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>45.00369230404466</v>
+        <v>52.3862326502081</v>
       </c>
       <c r="H9">
-        <v>14.21949472861497</v>
+        <v>20.10863342985334</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.3390187324636</v>
+        <v>10.82915511710816</v>
       </c>
       <c r="L9">
-        <v>6.412239665401093</v>
+        <v>10.06008429310215</v>
       </c>
       <c r="M9">
-        <v>10.50540987863261</v>
+        <v>15.18448840870643</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.70723197100798</v>
+        <v>14.82954332540609</v>
       </c>
       <c r="C10">
-        <v>7.143539041833671</v>
+        <v>8.553024924660162</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.933711257387266</v>
+        <v>12.30874759732449</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>46.32987929488788</v>
+        <v>52.53331525099541</v>
       </c>
       <c r="H10">
-        <v>14.30221849554173</v>
+        <v>20.07212340455551</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.32554199552874</v>
+        <v>11.0110807017132</v>
       </c>
       <c r="L10">
-        <v>6.563047378855391</v>
+        <v>10.05458674273342</v>
       </c>
       <c r="M10">
-        <v>10.98872027694397</v>
+        <v>15.21942134550954</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.29288908192805</v>
+        <v>14.95325060322575</v>
       </c>
       <c r="C11">
-        <v>7.198317875173221</v>
+        <v>8.57141668312129</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.967483367848208</v>
+        <v>12.30052108335407</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>46.97019104924205</v>
+        <v>52.61174180614637</v>
       </c>
       <c r="H11">
-        <v>14.35051108521005</v>
+        <v>20.05850926122921</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.75354265278419</v>
+        <v>11.09534256090918</v>
       </c>
       <c r="L11">
-        <v>6.634299414878196</v>
+        <v>10.05349550220414</v>
       </c>
       <c r="M11">
-        <v>11.20859007009597</v>
+        <v>15.23788676977002</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.51062024731131</v>
+        <v>15.00032282350773</v>
       </c>
       <c r="C12">
-        <v>7.219026793844407</v>
+        <v>8.578310549297917</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.98085084372265</v>
+        <v>12.29762035951646</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>47.21813877882226</v>
+        <v>52.6430884537471</v>
       </c>
       <c r="H12">
-        <v>14.37042300309873</v>
+        <v>20.05378512444944</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.91268179222123</v>
+        <v>11.12743905124246</v>
       </c>
       <c r="L12">
-        <v>6.661660810398868</v>
+        <v>10.05328429753815</v>
       </c>
       <c r="M12">
-        <v>11.29180413249834</v>
+        <v>15.24524545455976</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.46390657953905</v>
+        <v>14.9901755561108</v>
       </c>
       <c r="C13">
-        <v>7.214568117978681</v>
+        <v>8.5768289837733</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.977945882287924</v>
+        <v>12.29823554890094</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>47.16449279970121</v>
+        <v>52.63626423578954</v>
       </c>
       <c r="H13">
-        <v>14.366060868598</v>
+        <v>20.05478336283447</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.87853799567797</v>
+        <v>11.12051856387794</v>
       </c>
       <c r="L13">
-        <v>6.655751161406459</v>
+        <v>10.05332081066076</v>
       </c>
       <c r="M13">
-        <v>11.27388519711053</v>
+        <v>15.2436444080085</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.3108825676407</v>
+        <v>14.95711895614968</v>
       </c>
       <c r="C14">
-        <v>7.200022240231522</v>
+        <v>8.571985265246985</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.968571412871414</v>
+        <v>12.30027814259238</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>46.99047923272175</v>
+        <v>52.61428773387117</v>
       </c>
       <c r="H14">
-        <v>14.35211615566667</v>
+        <v>20.05811195751433</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.76669363763794</v>
+        <v>11.09797954302827</v>
       </c>
       <c r="L14">
-        <v>6.636542845066656</v>
+        <v>10.0534740815196</v>
       </c>
       <c r="M14">
-        <v>11.21543730077862</v>
+        <v>15.23848485708628</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.21662653030028</v>
+        <v>14.93689913867748</v>
       </c>
       <c r="C15">
-        <v>7.191108290139758</v>
+        <v>8.569009126875779</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.962905198659848</v>
+        <v>12.30155721129977</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>46.8846085636729</v>
+        <v>52.60104086680391</v>
       </c>
       <c r="H15">
-        <v>14.3437889565466</v>
+        <v>20.06020699613464</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.69780510045691</v>
+        <v>11.08419744506818</v>
       </c>
       <c r="L15">
-        <v>6.624826638341654</v>
+        <v>10.05359425262815</v>
       </c>
       <c r="M15">
-        <v>11.17962904600557</v>
+        <v>15.235372054789</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.66838778390728</v>
+        <v>14.82149282243751</v>
       </c>
       <c r="C16">
-        <v>7.13995367719587</v>
+        <v>8.551813114122453</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.931584141377473</v>
+        <v>12.30931525121582</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>46.28879128695026</v>
+        <v>52.52842101624113</v>
       </c>
       <c r="H16">
-        <v>14.29928473597846</v>
+        <v>20.07307343409694</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.29715741853022</v>
+        <v>11.00560186354006</v>
       </c>
       <c r="L16">
-        <v>6.558444080538672</v>
+        <v>10.05468636670201</v>
       </c>
       <c r="M16">
-        <v>10.97434723432476</v>
+        <v>15.21826605686832</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.34931273931418</v>
+        <v>14.75114420036262</v>
       </c>
       <c r="C17">
-        <v>7.108498876402311</v>
+        <v>8.541138527428373</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.913380646638525</v>
+        <v>12.31445693428863</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>45.93286597268609</v>
+        <v>52.48681598048213</v>
       </c>
       <c r="H17">
-        <v>14.27477746936352</v>
+        <v>20.08173401580996</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.04608737024393</v>
+        <v>10.95775125494419</v>
       </c>
       <c r="L17">
-        <v>6.518397952222522</v>
+        <v>10.05571692082847</v>
       </c>
       <c r="M17">
-        <v>10.84837972176926</v>
+        <v>15.20842869916594</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.17208243044935</v>
+        <v>14.71086026833818</v>
       </c>
       <c r="C18">
-        <v>7.090376859001264</v>
+        <v>8.53495286523747</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.903276127591495</v>
+        <v>12.31755492127958</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>45.73162277630035</v>
+        <v>52.46397058932131</v>
       </c>
       <c r="H18">
-        <v>14.26167934840929</v>
+        <v>20.0869971721667</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.89971972403965</v>
+        <v>10.93037199502272</v>
       </c>
       <c r="L18">
-        <v>6.495613833969922</v>
+        <v>10.05644239346364</v>
       </c>
       <c r="M18">
-        <v>10.77592975656461</v>
+        <v>15.20301306782179</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.111766692717</v>
+        <v>14.69725280599157</v>
       </c>
       <c r="C19">
-        <v>7.0842356101723</v>
+        <v>8.532850634131723</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.899917159177806</v>
+        <v>12.31862800882215</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>45.66407766606832</v>
+        <v>52.45642204957537</v>
       </c>
       <c r="H19">
-        <v>14.25741319082411</v>
+        <v>20.08882756801017</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.8498242478406</v>
+        <v>10.9211272774956</v>
       </c>
       <c r="L19">
-        <v>6.487942395749028</v>
+        <v>10.0567108412475</v>
       </c>
       <c r="M19">
-        <v>10.75140156905983</v>
+        <v>15.20122120269079</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.38196721970232</v>
+        <v>14.75861473893146</v>
       </c>
       <c r="C20">
-        <v>7.111850334823052</v>
+        <v>8.5422796117654</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.9152804647646</v>
+        <v>12.31389504129609</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>45.97039402961218</v>
+        <v>52.49113269487336</v>
       </c>
       <c r="H20">
-        <v>14.2772823880137</v>
+        <v>20.0807829099123</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.07301657689836</v>
+        <v>10.96283041983255</v>
       </c>
       <c r="L20">
-        <v>6.522635134065048</v>
+        <v>10.05559348472077</v>
       </c>
       <c r="M20">
-        <v>10.86178921405295</v>
+        <v>15.20945082660107</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.35593857506466</v>
+        <v>14.96682265744757</v>
       </c>
       <c r="C21">
-        <v>7.204295567648583</v>
+        <v>8.573409905293948</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.971309066808055</v>
+        <v>12.29967236521531</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>47.04144139610561</v>
+        <v>52.62069810666108</v>
       </c>
       <c r="H21">
-        <v>14.35616721942133</v>
+        <v>20.0571225600452</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.79962426049317</v>
+        <v>11.10459490976496</v>
       </c>
       <c r="L21">
-        <v>6.642174490346372</v>
+        <v>10.05342358500335</v>
       </c>
       <c r="M21">
-        <v>11.23260644399921</v>
+        <v>15.23999043584136</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98223932426515</v>
+        <v>15.10420197486087</v>
       </c>
       <c r="C22">
-        <v>7.264517945242104</v>
+        <v>8.593343070026076</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.011309088084992</v>
+        <v>12.29162699371624</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>47.77342373338168</v>
+        <v>52.71497858331955</v>
       </c>
       <c r="H22">
-        <v>14.41723721193132</v>
+        <v>20.04417300701227</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.25742283650355</v>
+        <v>11.19833115063359</v>
       </c>
       <c r="L22">
-        <v>6.722514270810811</v>
+        <v>10.05318262092738</v>
       </c>
       <c r="M22">
-        <v>11.47467380852934</v>
+        <v>15.26208245899186</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.65009816009307</v>
+        <v>15.03077470661146</v>
       </c>
       <c r="C23">
-        <v>7.23239024477062</v>
+        <v>8.582742250023028</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.989644651823142</v>
+        <v>12.29580670477447</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>47.37977210051681</v>
+        <v>52.66378388102771</v>
       </c>
       <c r="H23">
-        <v>14.38374131007268</v>
+        <v>20.05085422000939</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.01463140091343</v>
+        <v>11.14821227358196</v>
       </c>
       <c r="L23">
-        <v>6.679432977482591</v>
+        <v>10.05320375631085</v>
       </c>
       <c r="M23">
-        <v>11.34551720899076</v>
+        <v>15.25009777647213</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.36720999129021</v>
+        <v>14.75523680549799</v>
       </c>
       <c r="C24">
-        <v>7.110335260308333</v>
+        <v>8.541763879212461</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.914420434211173</v>
+        <v>12.31414863089291</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>45.95341706914205</v>
+        <v>52.48917776246896</v>
       </c>
       <c r="H24">
-        <v>14.2761468330835</v>
+        <v>20.08121202001284</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.06084819113427</v>
+        <v>10.9605337201649</v>
       </c>
       <c r="L24">
-        <v>6.520718759828742</v>
+        <v>10.05564887587393</v>
       </c>
       <c r="M24">
-        <v>10.85572687099044</v>
+        <v>15.2089879749161</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.04194325615316</v>
+        <v>14.46502682916583</v>
       </c>
       <c r="C25">
-        <v>6.977502163929547</v>
+        <v>8.495808258290079</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.847186835221532</v>
+        <v>12.33931085519139</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>44.54713178708318</v>
+        <v>52.34232214264208</v>
       </c>
       <c r="H25">
-        <v>14.19789327490817</v>
+        <v>20.12472881934566</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.9569908607444</v>
+        <v>10.76367452601929</v>
       </c>
       <c r="L25">
-        <v>6.359061894660919</v>
+        <v>10.06336273488915</v>
       </c>
       <c r="M25">
-        <v>10.32779204702455</v>
+        <v>15.17393071144759</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_169/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_169/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.25885541126553</v>
+        <v>13.00916442526162</v>
       </c>
       <c r="C2">
-        <v>8.460474104635257</v>
+        <v>6.878362017849227</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.36247422199909</v>
+        <v>7.808962729015789</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>52.2700144146375</v>
+        <v>43.61947376130035</v>
       </c>
       <c r="H2">
-        <v>20.16600593833469</v>
+        <v>14.16953626091664</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.62449821130868</v>
+        <v>10.07794036627388</v>
       </c>
       <c r="L2">
-        <v>10.07342784662966</v>
+        <v>6.248268183096572</v>
       </c>
       <c r="M2">
-        <v>15.15622141892267</v>
+        <v>9.941453701672236</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.12455322514939</v>
+        <v>12.27563403477199</v>
       </c>
       <c r="C3">
-        <v>8.435599950674264</v>
+        <v>6.810214313625584</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.38106974861166</v>
+        <v>7.78975490635391</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>52.24337459732921</v>
+        <v>43.05481998696487</v>
       </c>
       <c r="H3">
-        <v>20.19972502377299</v>
+        <v>14.16700518237533</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.53425400819322</v>
+        <v>9.440170665687535</v>
       </c>
       <c r="L3">
-        <v>10.08299292575401</v>
+        <v>6.178332809466294</v>
       </c>
       <c r="M3">
-        <v>15.14932502427314</v>
+        <v>9.682356379331839</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.04500536636511</v>
+        <v>11.8096503807555</v>
       </c>
       <c r="C4">
-        <v>8.419871745827367</v>
+        <v>6.767865311809862</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.39391830670356</v>
+        <v>7.781152048982546</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>52.23804067308948</v>
+        <v>42.73853571484766</v>
       </c>
       <c r="H4">
-        <v>20.22325666672233</v>
+        <v>14.17317986089467</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.48100879622683</v>
+        <v>9.027688728855932</v>
       </c>
       <c r="L4">
-        <v>10.09022174160067</v>
+        <v>6.137934431604689</v>
       </c>
       <c r="M4">
-        <v>15.14762361622899</v>
+        <v>9.525081554835946</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.01335714714178</v>
+        <v>11.61602877086727</v>
       </c>
       <c r="C5">
-        <v>8.413348297365529</v>
+        <v>6.750476668533952</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.39951424020416</v>
+        <v>7.778432076517467</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>52.23863685384855</v>
+        <v>42.61711081830198</v>
       </c>
       <c r="H5">
-        <v>20.23355624261685</v>
+        <v>14.17756692672944</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.45987805296979</v>
+        <v>8.854332485623214</v>
       </c>
       <c r="L5">
-        <v>10.09350883900024</v>
+        <v>6.122110977472909</v>
       </c>
       <c r="M5">
-        <v>15.14756936147675</v>
+        <v>9.46152123110353</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.00814938487088</v>
+        <v>11.58365924334975</v>
       </c>
       <c r="C6">
-        <v>8.412258206352817</v>
+        <v>6.74758128086549</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.40046519315299</v>
+        <v>7.778027397104668</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>52.23890304496864</v>
+        <v>42.59739338135884</v>
       </c>
       <c r="H6">
-        <v>20.23530934900252</v>
+        <v>14.17840629729546</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.45640420361034</v>
+        <v>8.825228497042449</v>
       </c>
       <c r="L6">
-        <v>10.09407528204262</v>
+        <v>6.11952209143259</v>
       </c>
       <c r="M6">
-        <v>15.14759900829673</v>
+        <v>9.451001356174906</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.04457539146961</v>
+        <v>11.80705394794216</v>
       </c>
       <c r="C7">
-        <v>8.41978422963729</v>
+        <v>6.767631337830046</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.39399231730846</v>
+        <v>7.781112206983981</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>52.23803750264869</v>
+        <v>42.73686817207442</v>
       </c>
       <c r="H7">
-        <v>20.22339269591947</v>
+        <v>14.17323154620703</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.48072149423546</v>
+        <v>9.025372121889083</v>
       </c>
       <c r="L7">
-        <v>10.09026469020898</v>
+        <v>6.137718443577596</v>
       </c>
       <c r="M7">
-        <v>15.14762029430712</v>
+        <v>9.52422210972783</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.211964833783</v>
+        <v>12.75958143157775</v>
       </c>
       <c r="C8">
-        <v>8.451992262267591</v>
+        <v>6.85496718155257</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.36858914578444</v>
+        <v>7.801667662153735</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>52.25854044822923</v>
+        <v>43.41836185515853</v>
       </c>
       <c r="H8">
-        <v>20.17704481955083</v>
+        <v>14.16701522110332</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.59294656424141</v>
+        <v>9.862361806121301</v>
       </c>
       <c r="L8">
-        <v>10.07644471931531</v>
+        <v>6.223627048700315</v>
       </c>
       <c r="M8">
-        <v>15.15331918187296</v>
+        <v>9.851784871705815</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.56171755672871</v>
+        <v>14.49740199035551</v>
       </c>
       <c r="C9">
-        <v>8.511521851754916</v>
+        <v>7.022435527041994</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.33011542407194</v>
+        <v>7.868037190594057</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>52.3862326502081</v>
+        <v>45.00369230404473</v>
       </c>
       <c r="H9">
-        <v>20.10863342985334</v>
+        <v>14.21949472861494</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.82915511710816</v>
+        <v>11.33901873246358</v>
       </c>
       <c r="L9">
-        <v>10.06008429310215</v>
+        <v>6.412239665401021</v>
       </c>
       <c r="M9">
-        <v>15.18448840870643</v>
+        <v>10.50540987863258</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.82954332540609</v>
+        <v>15.70723197100803</v>
       </c>
       <c r="C10">
-        <v>8.553024924660162</v>
+        <v>7.143539041833669</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.30874759732449</v>
+        <v>7.933711257387316</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>52.53331525099541</v>
+        <v>46.32987929488772</v>
       </c>
       <c r="H10">
-        <v>20.07212340455551</v>
+        <v>14.30221849554172</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.0110807017132</v>
+        <v>12.32554199552883</v>
       </c>
       <c r="L10">
-        <v>10.05458674273342</v>
+        <v>6.563047378855442</v>
       </c>
       <c r="M10">
-        <v>15.21942134550954</v>
+        <v>10.98872027694395</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.95325060322575</v>
+        <v>16.29288908192807</v>
       </c>
       <c r="C11">
-        <v>8.57141668312129</v>
+        <v>7.19831787517322</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.30052108335407</v>
+        <v>7.967483367848304</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>52.61174180614637</v>
+        <v>46.97019104924194</v>
       </c>
       <c r="H11">
-        <v>20.05850926122921</v>
+        <v>14.35051108521004</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.09534256090918</v>
+        <v>12.75354265278421</v>
       </c>
       <c r="L11">
-        <v>10.05349550220414</v>
+        <v>6.634299414878201</v>
       </c>
       <c r="M11">
-        <v>15.23788676977002</v>
+        <v>11.20859007009598</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.00032282350773</v>
+        <v>16.51062024731123</v>
       </c>
       <c r="C12">
-        <v>8.578310549297917</v>
+        <v>7.219026793844531</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.29762035951646</v>
+        <v>7.980850843722595</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>52.6430884537471</v>
+        <v>47.21813877882259</v>
       </c>
       <c r="H12">
-        <v>20.05378512444944</v>
+        <v>14.37042300309876</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.12743905124246</v>
+        <v>12.91268179222117</v>
       </c>
       <c r="L12">
-        <v>10.05328429753815</v>
+        <v>6.66166081039882</v>
       </c>
       <c r="M12">
-        <v>15.24524545455976</v>
+        <v>11.29180413249836</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.9901755561108</v>
+        <v>16.46390657953911</v>
       </c>
       <c r="C13">
-        <v>8.5768289837733</v>
+        <v>7.214568117978423</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.29823554890094</v>
+        <v>7.977945882287828</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>52.63626423578954</v>
+        <v>47.16449279970136</v>
       </c>
       <c r="H13">
-        <v>20.05478336283447</v>
+        <v>14.36606086859804</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.12051856387794</v>
+        <v>12.87853799567801</v>
       </c>
       <c r="L13">
-        <v>10.05332081066076</v>
+        <v>6.655751161406448</v>
       </c>
       <c r="M13">
-        <v>15.2436444080085</v>
+        <v>11.27388519711049</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.95711895614968</v>
+        <v>16.31088256764065</v>
       </c>
       <c r="C14">
-        <v>8.571985265246985</v>
+        <v>7.200022240231527</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.30027814259238</v>
+        <v>7.968571412871453</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>52.61428773387117</v>
+        <v>46.99047923272181</v>
       </c>
       <c r="H14">
-        <v>20.05811195751433</v>
+        <v>14.35211615566663</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.09797954302827</v>
+        <v>12.76669363763786</v>
       </c>
       <c r="L14">
-        <v>10.0534740815196</v>
+        <v>6.636542845066638</v>
       </c>
       <c r="M14">
-        <v>15.23848485708628</v>
+        <v>11.21543730077866</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.93689913867748</v>
+        <v>16.21662653030025</v>
       </c>
       <c r="C15">
-        <v>8.569009126875779</v>
+        <v>7.191108290139499</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.30155721129977</v>
+        <v>7.962905198659801</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>52.60104086680391</v>
+        <v>46.8846085636733</v>
       </c>
       <c r="H15">
-        <v>20.06020699613464</v>
+        <v>14.34378895654673</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.08419744506818</v>
+        <v>12.6978051004568</v>
       </c>
       <c r="L15">
-        <v>10.05359425262815</v>
+        <v>6.624826638341652</v>
       </c>
       <c r="M15">
-        <v>15.235372054789</v>
+        <v>11.17962904600559</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.82149282243751</v>
+        <v>15.66838778390731</v>
       </c>
       <c r="C16">
-        <v>8.551813114122453</v>
+        <v>7.13995367719573</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.30931525121582</v>
+        <v>7.93158414137748</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>52.52842101624113</v>
+        <v>46.28879128695034</v>
       </c>
       <c r="H16">
-        <v>20.07307343409694</v>
+        <v>14.29928473597852</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.00560186354006</v>
+        <v>12.29715741853026</v>
       </c>
       <c r="L16">
-        <v>10.05468636670201</v>
+        <v>6.558444080538668</v>
       </c>
       <c r="M16">
-        <v>15.21826605686832</v>
+        <v>10.97434723432474</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.75114420036262</v>
+        <v>15.34931273931418</v>
       </c>
       <c r="C17">
-        <v>8.541138527428373</v>
+        <v>7.108498876402057</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.31445693428863</v>
+        <v>7.91338064663837</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>52.48681598048213</v>
+        <v>45.93286597268602</v>
       </c>
       <c r="H17">
-        <v>20.08173401580996</v>
+        <v>14.27477746936358</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.95775125494419</v>
+        <v>12.04608737024388</v>
       </c>
       <c r="L17">
-        <v>10.05571692082847</v>
+        <v>6.518397952222546</v>
       </c>
       <c r="M17">
-        <v>15.20842869916594</v>
+        <v>10.84837972176924</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.71086026833818</v>
+        <v>15.17208243044935</v>
       </c>
       <c r="C18">
-        <v>8.53495286523747</v>
+        <v>7.090376859001407</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.31755492127958</v>
+        <v>7.903276127591587</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>52.46397058932131</v>
+        <v>45.73162277630016</v>
       </c>
       <c r="H18">
-        <v>20.0869971721667</v>
+        <v>14.26167934840927</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.93037199502272</v>
+        <v>11.89971972403966</v>
       </c>
       <c r="L18">
-        <v>10.05644239346364</v>
+        <v>6.495613833969925</v>
       </c>
       <c r="M18">
-        <v>15.20301306782179</v>
+        <v>10.77592975656463</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.69725280599157</v>
+        <v>15.111766692717</v>
       </c>
       <c r="C19">
-        <v>8.532850634131723</v>
+        <v>7.084235610172319</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.31862800882215</v>
+        <v>7.899917159177787</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>52.45642204957537</v>
+        <v>45.66407766606807</v>
       </c>
       <c r="H19">
-        <v>20.08882756801017</v>
+        <v>14.25741319082407</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.9211272774956</v>
+        <v>11.84982424784063</v>
       </c>
       <c r="L19">
-        <v>10.0567108412475</v>
+        <v>6.487942395748962</v>
       </c>
       <c r="M19">
-        <v>15.20122120269079</v>
+        <v>10.75140156905983</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.75861473893146</v>
+        <v>15.38196721970232</v>
       </c>
       <c r="C20">
-        <v>8.5422796117654</v>
+        <v>7.111850334822935</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.31389504129609</v>
+        <v>7.915280464764495</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>52.49113269487336</v>
+        <v>45.97039402961203</v>
       </c>
       <c r="H20">
-        <v>20.0807829099123</v>
+        <v>14.27728238801356</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.96283041983255</v>
+        <v>12.0730165768983</v>
       </c>
       <c r="L20">
-        <v>10.05559348472077</v>
+        <v>6.522635134065023</v>
       </c>
       <c r="M20">
-        <v>15.20945082660107</v>
+        <v>10.86178921405294</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.96682265744757</v>
+        <v>16.35593857506462</v>
       </c>
       <c r="C21">
-        <v>8.573409905293948</v>
+        <v>7.204295567648708</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.29967236521531</v>
+        <v>7.971309066808208</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>52.62069810666108</v>
+        <v>47.04144139610559</v>
       </c>
       <c r="H21">
-        <v>20.0571225600452</v>
+        <v>14.35616721942138</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.10459490976496</v>
+        <v>12.79962426049313</v>
       </c>
       <c r="L21">
-        <v>10.05342358500335</v>
+        <v>6.642174490346467</v>
       </c>
       <c r="M21">
-        <v>15.23999043584136</v>
+        <v>11.23260644399926</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.10420197486087</v>
+        <v>16.98223932426518</v>
       </c>
       <c r="C22">
-        <v>8.593343070026076</v>
+        <v>7.264517945242109</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.29162699371624</v>
+        <v>8.01130908808503</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>52.71497858331955</v>
+        <v>47.77342373338161</v>
       </c>
       <c r="H22">
-        <v>20.04417300701227</v>
+        <v>14.41723721193122</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.19833115063359</v>
+        <v>13.25742283650361</v>
       </c>
       <c r="L22">
-        <v>10.05318262092738</v>
+        <v>6.722514270810871</v>
       </c>
       <c r="M22">
-        <v>15.26208245899186</v>
+        <v>11.47467380852933</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.03077470661146</v>
+        <v>16.65009816009302</v>
       </c>
       <c r="C23">
-        <v>8.582742250023028</v>
+        <v>7.23239024477062</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.29580670477447</v>
+        <v>7.989644651823149</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>52.66378388102771</v>
+        <v>47.37977210051707</v>
       </c>
       <c r="H23">
-        <v>20.05085422000939</v>
+        <v>14.38374131007272</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.14821227358196</v>
+        <v>13.01463140091336</v>
       </c>
       <c r="L23">
-        <v>10.05320375631085</v>
+        <v>6.679432977482618</v>
       </c>
       <c r="M23">
-        <v>15.25009777647213</v>
+        <v>11.34551720899079</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.75523680549799</v>
+        <v>15.3672099912902</v>
       </c>
       <c r="C24">
-        <v>8.541763879212461</v>
+        <v>7.110335260308212</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.31414863089291</v>
+        <v>7.914420434211271</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>52.48917776246896</v>
+        <v>45.95341706914156</v>
       </c>
       <c r="H24">
-        <v>20.08121202001284</v>
+        <v>14.27614683308342</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.9605337201649</v>
+        <v>12.06084819113431</v>
       </c>
       <c r="L24">
-        <v>10.05564887587393</v>
+        <v>6.520718759828792</v>
       </c>
       <c r="M24">
-        <v>15.2089879749161</v>
+        <v>10.85572687099043</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46502682916583</v>
+        <v>14.04194325615316</v>
       </c>
       <c r="C25">
-        <v>8.495808258290079</v>
+        <v>6.977502163929417</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.33931085519139</v>
+        <v>7.847186835221645</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>52.34232214264208</v>
+        <v>44.5471317870833</v>
       </c>
       <c r="H25">
-        <v>20.12472881934566</v>
+        <v>14.19789327490818</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.76367452601929</v>
+        <v>10.9569908607444</v>
       </c>
       <c r="L25">
-        <v>10.06336273488915</v>
+        <v>6.359061894661008</v>
       </c>
       <c r="M25">
-        <v>15.17393071144759</v>
+        <v>10.32779204702459</v>
       </c>
       <c r="N25">
         <v>0</v>
